--- a/formulario.xlsx
+++ b/formulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielfelipe\Documents\Rstudio\Flisol_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E6D88277-D746-4E78-B0F0-7BC63E2907B4}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D343A-4B62-4FC8-AC37-95527E705A94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11160" xr2:uid="{9E2C3BAC-B006-4D83-8A37-757A5E5DE1AE}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="survey" sheetId="1" r:id="rId1"/>
     <sheet name="choices" sheetId="2" r:id="rId2"/>
     <sheet name="settings" sheetId="3" r:id="rId3"/>
+    <sheet name="Hoja1" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="22">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -89,26 +90,323 @@
     <t>nota</t>
   </si>
   <si>
-    <t>bienvenido  ${nombre} al taller de ODK y R</t>
-  </si>
-  <si>
     <t>yes</t>
   </si>
   <si>
-    <t>ubicación</t>
-  </si>
-  <si>
     <t>geopoint</t>
   </si>
   <si>
     <t>Ubicación geografica</t>
+  </si>
+  <si>
+    <t>select_one gusto_flisol</t>
+  </si>
+  <si>
+    <t>gusto_flisol</t>
+  </si>
+  <si>
+    <t>Te gusta Flisol?</t>
+  </si>
+  <si>
+    <t>Si</t>
+  </si>
+  <si>
+    <t>No</t>
+  </si>
+  <si>
+    <t>list name</t>
+  </si>
+  <si>
+    <t>form_title</t>
+  </si>
+  <si>
+    <t>form_id</t>
+  </si>
+  <si>
+    <t>default_language</t>
+  </si>
+  <si>
+    <t>submission_url</t>
+  </si>
+  <si>
+    <t>instance_name</t>
+  </si>
+  <si>
+    <t>version</t>
+  </si>
+  <si>
+    <t>edad</t>
+  </si>
+  <si>
+    <t>Cual es tu edad?</t>
+  </si>
+  <si>
+    <t>numbers</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>ubicacion</t>
+  </si>
+  <si>
+    <t>ultima_compra</t>
+  </si>
+  <si>
+    <t>Cuando fue la ultima vez que fuiste de compras?</t>
+  </si>
+  <si>
+    <t>appareance</t>
+  </si>
+  <si>
+    <t>quick</t>
+  </si>
+  <si>
+    <t>autocomplete</t>
+  </si>
+  <si>
+    <t>pasa a la siguiente automaticamente</t>
+  </si>
+  <si>
+    <t>añade un buscador de respuestas</t>
+  </si>
+  <si>
+    <t>funcion</t>
+  </si>
+  <si>
+    <t>columns-pack</t>
+  </si>
+  <si>
+    <t>agrupa las opciones en una fila lo posible</t>
+  </si>
+  <si>
+    <t>select_one</t>
+  </si>
+  <si>
+    <t>para agregar numeros tel o ID</t>
+  </si>
+  <si>
+    <t>columns</t>
+  </si>
+  <si>
+    <t>agrupa por columnas dependiendo el tamaño(bueno con imágenes)</t>
+  </si>
+  <si>
+    <t>columns-n</t>
+  </si>
+  <si>
+    <t>la pone en n columnas</t>
+  </si>
+  <si>
+    <t>no-buttons</t>
+  </si>
+  <si>
+    <t>solo aparecen las imágenes si hay</t>
+  </si>
+  <si>
+    <t>parameters</t>
+  </si>
+  <si>
+    <t>randomize=TRUE</t>
+  </si>
+  <si>
+    <t>randomize=true</t>
+  </si>
+  <si>
+    <t>cambiar el orden de las respuestas</t>
+  </si>
+  <si>
+    <t>rank {list_name}</t>
+  </si>
+  <si>
+    <t>Ordena en la forma correcta de 1 - n</t>
+  </si>
+  <si>
+    <t>placement-map</t>
+  </si>
+  <si>
+    <t>Permite seleccionar un punto sobre el mapa</t>
+  </si>
+  <si>
+    <t>maps</t>
+  </si>
+  <si>
+    <t>muestra un mapa para ayudar al usuario a orientarse y confirmar que el punto seleccionado es correcto y suficientemente preciso.</t>
+  </si>
+  <si>
+    <t>geotrace</t>
+  </si>
+  <si>
+    <t>geoshape</t>
+  </si>
+  <si>
+    <t xml:space="preserve">poligonos </t>
+  </si>
+  <si>
+    <t>trayecto o lineas en tiempo real o dibujadas</t>
+  </si>
+  <si>
+    <t>calculate</t>
+  </si>
+  <si>
+    <t>Calculamos el area del poligono</t>
+  </si>
+  <si>
+    <t>The area of the recorded geoshape is: ${area} m²</t>
+  </si>
+  <si>
+    <t>area</t>
+  </si>
+  <si>
+    <t>shape</t>
+  </si>
+  <si>
+    <t>round(${shape}, 2)</t>
+  </si>
+  <si>
+    <t>annotate</t>
+  </si>
+  <si>
+    <t>image</t>
+  </si>
+  <si>
+    <t>Permite rayar la imagen</t>
+  </si>
+  <si>
+    <t>max-pixels=1024</t>
+  </si>
+  <si>
+    <t>new</t>
+  </si>
+  <si>
+    <t>no deja seleccionar fotos del movil, solo tomar una nueva</t>
+  </si>
+  <si>
+    <t>new-front</t>
+  </si>
+  <si>
+    <t>activa solo la camara frontal</t>
+  </si>
+  <si>
+    <t>draw</t>
+  </si>
+  <si>
+    <t>dibujar</t>
+  </si>
+  <si>
+    <t>audio</t>
+  </si>
+  <si>
+    <t>quality=voice-only, o normal or low</t>
+  </si>
+  <si>
+    <t>file</t>
+  </si>
+  <si>
+    <t>Subir cualquier tipo de archivo</t>
+  </si>
+  <si>
+    <t>range</t>
+  </si>
+  <si>
+    <t>start=1.5;end=5.5;step=0.5</t>
+  </si>
+  <si>
+    <t>vertical</t>
+  </si>
+  <si>
+    <t>aparece verticalmente</t>
+  </si>
+  <si>
+    <t>start=1;end=5;step=1</t>
+  </si>
+  <si>
+    <t>picker</t>
+  </si>
+  <si>
+    <t>se debe seleccionar el numero</t>
+  </si>
+  <si>
+    <t>rating</t>
+  </si>
+  <si>
+    <t>aparecen estrellas</t>
+  </si>
+  <si>
+    <t>start=1;end=5;step=2</t>
+  </si>
+  <si>
+    <t>end=9</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>http://getodk.org/</t>
+  </si>
+  <si>
+    <t>permite abrir un link</t>
+  </si>
+  <si>
+    <t>true()</t>
+  </si>
+  <si>
+    <t>signature</t>
+  </si>
+  <si>
+    <t>Permite recolectar una firma</t>
+  </si>
+  <si>
+    <t>field-list</t>
+  </si>
+  <si>
+    <t>begin_group</t>
+  </si>
+  <si>
+    <t>los muestra todas en una pantalla</t>
+  </si>
+  <si>
+    <t>repeat_count</t>
+  </si>
+  <si>
+    <t>select_multiple</t>
+  </si>
+  <si>
+    <t>count-selected(.)=3</t>
+  </si>
+  <si>
+    <t>seleccionar 3 opciones</t>
+  </si>
+  <si>
+    <t>Si :)</t>
+  </si>
+  <si>
+    <t>No :-(</t>
+  </si>
+  <si>
+    <t>sexo</t>
+  </si>
+  <si>
+    <t>select_one sexo</t>
+  </si>
+  <si>
+    <t>Hombre</t>
+  </si>
+  <si>
+    <t>Mujer</t>
+  </si>
+  <si>
+    <t>Sexo</t>
+  </si>
+  <si>
+    <t>Bienvenido,  ${nombre}  al taller de &lt;span style="color:red"&gt;ODK&lt;/span&gt; y &lt;span style="color:blue"&gt;R&lt;/span&gt;</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -124,16 +422,57 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Georgia"/>
+      <family val="1"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF404040"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color theme="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFCFCFC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
@@ -141,21 +480,160 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E4E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E4E5"/>
+      </right>
+      <top style="medium">
+        <color rgb="FFE1E4E5"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFE1E4E5"/>
+      </left>
+      <right style="medium">
+        <color rgb="FFE1E4E5"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color rgb="FFE1E4E5"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" indent="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hipervínculo" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -172,7 +650,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr val="windowText" lastClr="464646"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -464,19 +942,26 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D5D15A9D-689F-4258-AD9A-D3FA92A0C746}">
-  <dimension ref="A1:L4"/>
+  <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J3" sqref="J3"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="39.28515625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="99.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="4.5703125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="8.7109375" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="15.42578125" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="12.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="30" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" ht="30" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -513,8 +998,11 @@
       <c r="L1" s="1" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="M1" s="1" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>13</v>
       </c>
@@ -524,14 +1012,14 @@
       <c r="C2" t="s">
         <v>15</v>
       </c>
-      <c r="F2" t="s">
-        <v>18</v>
+      <c r="F2" s="4" t="s">
+        <v>103</v>
       </c>
       <c r="G2" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>12</v>
       </c>
@@ -539,48 +1027,600 @@
         <v>16</v>
       </c>
       <c r="C3" t="s">
+        <v>120</v>
+      </c>
+      <c r="E3" t="s">
         <v>17</v>
       </c>
-      <c r="E3" t="s">
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>116</v>
+      </c>
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>119</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>19</v>
+      </c>
+      <c r="F5" s="4"/>
+      <c r="J5" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>20</v>
       </c>
-      <c r="B4" t="s">
-        <v>19</v>
-      </c>
-      <c r="C4" t="s">
+      <c r="B6" t="s">
         <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>33</v>
+      </c>
+      <c r="J7" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" t="s">
+        <v>37</v>
+      </c>
+      <c r="C8" t="s">
+        <v>38</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E28544DA-02D0-4F88-9AAD-3C53EFBBC935}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:I5"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B2" t="s">
+        <v>21</v>
+      </c>
+      <c r="C2" t="s">
+        <v>23</v>
+      </c>
+      <c r="D2" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C3" t="s">
+        <v>24</v>
+      </c>
+      <c r="D3" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>115</v>
+      </c>
+      <c r="C4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D4" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>115</v>
+      </c>
+      <c r="C5" t="s">
+        <v>118</v>
+      </c>
+      <c r="D5" t="s">
+        <v>118</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2CFAC001-958A-48B8-9B7E-873ECFE05169}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:F1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="10" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="8" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="5" width="14.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1" t="s">
+        <v>27</v>
+      </c>
+      <c r="C1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D1" t="s">
+        <v>29</v>
+      </c>
+      <c r="E1" t="s">
+        <v>30</v>
+      </c>
+      <c r="F1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6DEBE669-D79C-43DD-9781-7D630C02FC7E}">
+  <dimension ref="A1:G31"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C29" sqref="C29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="16.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.7109375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="62" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="32.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="22.5703125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="B1" t="s">
+        <v>39</v>
+      </c>
+      <c r="C1" t="s">
+        <v>44</v>
+      </c>
+      <c r="D1" t="s">
+        <v>55</v>
+      </c>
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+      <c r="C2" s="8" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B3" t="s">
+        <v>41</v>
+      </c>
+      <c r="C3" s="8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>47</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>45</v>
+      </c>
+      <c r="C4" s="8" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5" s="6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" s="8" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>47</v>
+      </c>
+      <c r="B6" s="6" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="8" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>47</v>
+      </c>
+      <c r="B7" s="6" t="s">
+        <v>53</v>
+      </c>
+      <c r="C7" s="8" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="C8" s="8" t="s">
+        <v>58</v>
+      </c>
+      <c r="D8" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="8" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>61</v>
+      </c>
+      <c r="C10" s="8" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" ht="30" x14ac:dyDescent="0.25">
+      <c r="A11" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B11" s="6" t="s">
+        <v>63</v>
+      </c>
+      <c r="C11" s="7" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="6" t="s">
+        <v>65</v>
+      </c>
+      <c r="B12" s="6"/>
+      <c r="C12" s="7" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="6" t="s">
+        <v>66</v>
+      </c>
+      <c r="B13" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="C13" s="7" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="16.5" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A14" s="6" t="s">
+        <v>69</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="C14" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="10"/>
+      <c r="C15" s="12" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="11"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="13"/>
+    </row>
+    <row r="17" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B17" s="6" t="s">
+        <v>75</v>
+      </c>
+      <c r="C17" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="4" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B18" s="6" t="s">
+        <v>79</v>
+      </c>
+      <c r="C18" s="7" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B19" s="6" t="s">
+        <v>81</v>
+      </c>
+      <c r="C19" s="7" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B20" s="6" t="s">
+        <v>83</v>
+      </c>
+      <c r="C20" s="7" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="6" t="s">
+        <v>76</v>
+      </c>
+      <c r="B21" s="6" t="s">
+        <v>104</v>
+      </c>
+      <c r="C21" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="B22" s="6"/>
+      <c r="C22" s="7"/>
+      <c r="D22" s="4" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4" t="s">
+        <v>87</v>
+      </c>
+      <c r="B23" s="6"/>
+      <c r="C23" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="D23" s="4"/>
+    </row>
+    <row r="24" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B24" s="6"/>
+      <c r="C24" s="7"/>
+      <c r="D24" s="4" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B25" s="6" t="s">
+        <v>91</v>
+      </c>
+      <c r="C25" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="D25" s="4" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B26" s="6" t="s">
+        <v>94</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="D26" s="4" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4" t="s">
+        <v>89</v>
+      </c>
+      <c r="B27" s="6" t="s">
+        <v>96</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="D27" s="4" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4" t="s">
+        <v>107</v>
+      </c>
+      <c r="B28" s="6" t="s">
+        <v>106</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>108</v>
+      </c>
+      <c r="D28" s="4"/>
+    </row>
+    <row r="29" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4" t="s">
+        <v>110</v>
+      </c>
+      <c r="B29" s="6"/>
+      <c r="C29" s="7" t="s">
+        <v>112</v>
+      </c>
+      <c r="D29" s="4"/>
+      <c r="G29" s="4" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>13</v>
+      </c>
+      <c r="B30" t="s">
+        <v>34</v>
+      </c>
+      <c r="C30" s="8" t="s">
+        <v>48</v>
+      </c>
+      <c r="F30" s="9" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>13</v>
+      </c>
+      <c r="B31" s="6" t="s">
+        <v>100</v>
+      </c>
+      <c r="C31" s="7" t="s">
+        <v>102</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="3">
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="B15:B16"/>
+    <mergeCell ref="C15:C16"/>
+  </mergeCells>
+  <phoneticPr fontId="5" type="noConversion"/>
+  <hyperlinks>
+    <hyperlink ref="F30" r:id="rId1" xr:uid="{7FAC39F1-AAF4-44E1-BA93-4C01860000B4}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/formulario.xlsx
+++ b/formulario.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\danielfelipe\Documents\Rstudio\Flisol_2021\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{242D343A-4B62-4FC8-AC37-95527E705A94}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{619D8E8E-3086-47F5-B762-F16C90576900}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-60" yWindow="-60" windowWidth="20610" windowHeight="11160" xr2:uid="{9E2C3BAC-B006-4D83-8A37-757A5E5DE1AE}"/>
   </bookViews>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="161" uniqueCount="122">
   <si>
     <t xml:space="preserve">Type </t>
   </si>
@@ -400,6 +400,9 @@
   </si>
   <si>
     <t>Bienvenido,  ${nombre}  al taller de &lt;span style="color:red"&gt;ODK&lt;/span&gt; y &lt;span style="color:blue"&gt;R&lt;/span&gt;</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Por favor ingrese su nombre </t>
   </si>
 </sst>
 </file>
@@ -566,74 +569,6 @@
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -650,7 +585,7 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="464646"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
         <a:sysClr val="window" lastClr="FFFFFF"/>
@@ -945,7 +880,7 @@
   <dimension ref="A1:M8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C3"/>
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1016,7 +951,7 @@
         <v>103</v>
       </c>
       <c r="G2" t="s">
-        <v>15</v>
+        <v>121</v>
       </c>
     </row>
     <row r="3" spans="1:13" x14ac:dyDescent="0.25">
